--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddarth/iCloud/Desktop/UCB/EC/ML@B/NMEP_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4321F9-272E-B349-9446-52382735DDD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CEF59-3E32-D844-83B4-EEC0707F7802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6E93D097-A7AB-7E42-92E5-38E89649DC09}"/>
   </bookViews>
@@ -298,10 +298,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.28</c:v>
+                  <c:v>68.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.28</c:v>
+                  <c:v>62.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>62.98</c:v>
@@ -427,10 +427,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.28</c:v>
+                  <c:v>34.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.28</c:v>
+                  <c:v>33.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32.99</c:v>
@@ -2696,13 +2696,13 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
@@ -2738,10 +2738,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>14.28</v>
+        <v>68.709999999999994</v>
       </c>
       <c r="C2">
-        <v>14.28</v>
+        <v>62.56</v>
       </c>
       <c r="D2" s="1">
         <v>62.98</v>
@@ -2767,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>14.28</v>
+        <v>34.36</v>
       </c>
       <c r="C3">
-        <v>14.28</v>
+        <v>33.03</v>
       </c>
       <c r="D3">
         <v>32.99</v>
